--- a/gold/excel/revenue_summary.xlsx
+++ b/gold/excel/revenue_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,281 +478,701 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL2240</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124033.47</v>
+        <v>36651.01</v>
       </c>
       <c r="C2" t="n">
-        <v>101631.3</v>
+        <v>23424.5</v>
       </c>
       <c r="D2" t="n">
-        <v>6895.82</v>
+        <v>4731.21</v>
       </c>
       <c r="E2" t="n">
-        <v>9600</v>
+        <v>6750</v>
       </c>
       <c r="F2" t="n">
-        <v>5906.35</v>
+        <v>1745.3</v>
       </c>
       <c r="G2" t="n">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>867.37</v>
+        <v>411.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL8121</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134565.32</v>
+        <v>38517.45</v>
       </c>
       <c r="C3" t="n">
-        <v>109004.49</v>
+        <v>19014.94</v>
       </c>
       <c r="D3" t="n">
-        <v>7202.96</v>
+        <v>7118.35</v>
       </c>
       <c r="E3" t="n">
-        <v>11950</v>
+        <v>10550</v>
       </c>
       <c r="F3" t="n">
-        <v>6407.87</v>
+        <v>1834.16</v>
       </c>
       <c r="G3" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H3" t="n">
-        <v>897.1</v>
+        <v>279.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL9519</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203270.89</v>
+        <v>196959.99</v>
       </c>
       <c r="C4" t="n">
-        <v>161637.81</v>
+        <v>166232.53</v>
       </c>
       <c r="D4" t="n">
-        <v>11703.51</v>
+        <v>8548.41</v>
       </c>
       <c r="E4" t="n">
-        <v>20250</v>
+        <v>12800</v>
       </c>
       <c r="F4" t="n">
-        <v>9679.57</v>
+        <v>9379.049999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="H4" t="n">
-        <v>819.64</v>
+        <v>1172.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL3335</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45762.72</v>
+        <v>42465.4</v>
       </c>
       <c r="C5" t="n">
-        <v>36960.83</v>
+        <v>23234.73</v>
       </c>
       <c r="D5" t="n">
-        <v>3272.71</v>
+        <v>6808.51</v>
       </c>
       <c r="E5" t="n">
-        <v>3350</v>
+        <v>10400</v>
       </c>
       <c r="F5" t="n">
-        <v>2179.18</v>
+        <v>2022.16</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="H5" t="n">
-        <v>802.85</v>
+        <v>324.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115069.51</v>
+        <v>36529.58</v>
       </c>
       <c r="C6" t="n">
-        <v>92660.49000000001</v>
+        <v>19102.98</v>
       </c>
       <c r="D6" t="n">
-        <v>7379.52</v>
+        <v>5637.09</v>
       </c>
       <c r="E6" t="n">
-        <v>9550</v>
+        <v>10050</v>
       </c>
       <c r="F6" t="n">
-        <v>5479.5</v>
+        <v>1739.51</v>
       </c>
       <c r="G6" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H6" t="n">
-        <v>804.6799999999999</v>
+        <v>299.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL1294</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228726.77</v>
+        <v>39121.91</v>
       </c>
       <c r="C7" t="n">
-        <v>185075.3</v>
+        <v>25581.72</v>
       </c>
       <c r="D7" t="n">
-        <v>13059.71</v>
+        <v>4127.24</v>
       </c>
       <c r="E7" t="n">
-        <v>19700</v>
+        <v>7550</v>
       </c>
       <c r="F7" t="n">
-        <v>10891.76</v>
+        <v>1862.95</v>
       </c>
       <c r="G7" t="n">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="H7" t="n">
-        <v>869.6799999999999</v>
+        <v>407.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL8464</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>127804.87</v>
+        <v>38593.74</v>
       </c>
       <c r="C8" t="n">
-        <v>103379.58</v>
+        <v>23556.54</v>
       </c>
       <c r="D8" t="n">
-        <v>7689.34</v>
+        <v>5049.39</v>
       </c>
       <c r="E8" t="n">
-        <v>10650</v>
+        <v>8150</v>
       </c>
       <c r="F8" t="n">
-        <v>6085.95</v>
+        <v>1837.81</v>
       </c>
       <c r="G8" t="n">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="H8" t="n">
-        <v>857.75</v>
+        <v>364.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL1344</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>135590.55</v>
+        <v>44625.37</v>
       </c>
       <c r="C9" t="n">
-        <v>109966.3</v>
+        <v>24852.39</v>
       </c>
       <c r="D9" t="n">
-        <v>7617.56</v>
+        <v>6697.97</v>
       </c>
       <c r="E9" t="n">
-        <v>11550</v>
+        <v>10950</v>
       </c>
       <c r="F9" t="n">
-        <v>6456.69</v>
+        <v>2125.01</v>
       </c>
       <c r="G9" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H9" t="n">
-        <v>916.15</v>
+        <v>314.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL2664</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223711.27</v>
+        <v>39940.18</v>
       </c>
       <c r="C10" t="n">
-        <v>181304.65</v>
+        <v>21827.41</v>
       </c>
       <c r="D10" t="n">
-        <v>12853.71</v>
+        <v>6110.84</v>
       </c>
       <c r="E10" t="n">
-        <v>18900</v>
+        <v>10100</v>
       </c>
       <c r="F10" t="n">
-        <v>10652.91</v>
+        <v>1901.93</v>
       </c>
       <c r="G10" t="n">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="H10" t="n">
-        <v>847.39</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL3756</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>140728.35</v>
+        <v>39563.61</v>
       </c>
       <c r="C11" t="n">
-        <v>113139.75</v>
+        <v>19541.63</v>
       </c>
       <c r="D11" t="n">
-        <v>8537.24</v>
+        <v>7738</v>
       </c>
       <c r="E11" t="n">
+        <v>10400</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1883.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>146</v>
+      </c>
+      <c r="H11" t="n">
+        <v>270.98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL5997</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>41483.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27764.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4944.43</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1975.42</v>
+      </c>
+      <c r="G12" t="n">
+        <v>99</v>
+      </c>
+      <c r="H12" t="n">
+        <v>419.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL9566</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>38059.08</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25143.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4653.34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1812.34</v>
+      </c>
+      <c r="G13" t="n">
+        <v>94</v>
+      </c>
+      <c r="H13" t="n">
+        <v>404.88</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>114938.91</v>
+      </c>
+      <c r="C14" t="n">
+        <v>87579.06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9486.559999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12400</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5473.29</v>
+      </c>
+      <c r="G14" t="n">
+        <v>183</v>
+      </c>
+      <c r="H14" t="n">
+        <v>628.08</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL8118</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>39873.34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24109.15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5165.46</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8700</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1898.73</v>
+      </c>
+      <c r="G15" t="n">
+        <v>107</v>
+      </c>
+      <c r="H15" t="n">
+        <v>372.65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL2977</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>230649.16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>196444.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9821.16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13400</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10983.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>200</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1153.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL5421</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>42894.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27943.29</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4858.51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8050</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2042.58</v>
+      </c>
+      <c r="G17" t="n">
+        <v>103</v>
+      </c>
+      <c r="H17" t="n">
+        <v>416.45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL5301</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>50783.06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>27951.26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8363.559999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12050</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2418.24</v>
+      </c>
+      <c r="G18" t="n">
+        <v>160</v>
+      </c>
+      <c r="H18" t="n">
+        <v>317.39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL9612</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>131931.63</v>
+      </c>
+      <c r="C19" t="n">
+        <v>99149.57000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10249.58</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16250</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6282.48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>203</v>
+      </c>
+      <c r="H19" t="n">
+        <v>649.91</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL6575</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>48544.14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26800.73</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7481.79</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11950</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2311.62</v>
+      </c>
+      <c r="G20" t="n">
+        <v>154</v>
+      </c>
+      <c r="H20" t="n">
+        <v>315.22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL4876</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>32434.01</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21090.71</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3998.83</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5800</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1544.47</v>
+      </c>
+      <c r="G21" t="n">
+        <v>78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>415.82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL1573</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>39805.96</v>
+      </c>
+      <c r="C22" t="n">
+        <v>26148.53</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4611.91</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7150</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1895.52</v>
+      </c>
+      <c r="G22" t="n">
+        <v>96</v>
+      </c>
+      <c r="H22" t="n">
+        <v>414.65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL6970</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>211855.36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>179618.13</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9298.879999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12850</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10088.35</v>
+      </c>
+      <c r="G23" t="n">
+        <v>183</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1157.68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5705</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>45463.11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23939.91</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7858.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2164.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>151</v>
+      </c>
+      <c r="H24" t="n">
+        <v>301.08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>101040.83</v>
+      </c>
+      <c r="C25" t="n">
+        <v>75832.24000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8047.11</v>
+      </c>
+      <c r="E25" t="n">
         <v>12350</v>
       </c>
-      <c r="F11" t="n">
-        <v>6701.36</v>
-      </c>
-      <c r="G11" t="n">
-        <v>173</v>
-      </c>
-      <c r="H11" t="n">
-        <v>813.46</v>
+      <c r="F25" t="n">
+        <v>4811.48</v>
+      </c>
+      <c r="G25" t="n">
+        <v>161</v>
+      </c>
+      <c r="H25" t="n">
+        <v>627.58</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL8222</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>39099.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21096.29</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6791.52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9350</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1861.89</v>
+      </c>
+      <c r="G26" t="n">
+        <v>133</v>
+      </c>
+      <c r="H26" t="n">
+        <v>293.98</v>
       </c>
     </row>
   </sheetData>
